--- a/submissions/proposal-original/Review of Statistical Models from Literature.xlsx
+++ b/submissions/proposal-original/Review of Statistical Models from Literature.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ffce2ed1cf6c3ec/Documents/University/Year Four/CITS4001 Thesis/honours/submissions/honours2-proposal-original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mark\OneDrive\Documents\University\Year Four\CITS4001 Thesis\honours\submissions\proposal-original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2124" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2124" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2009-block_sandner" sheetId="1" r:id="rId1"/>
     <sheet name="2011-alexy" sheetId="3" r:id="rId2"/>
     <sheet name="2011-martens" sheetId="5" r:id="rId3"/>
-    <sheet name="2012-xiang" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="90">
   <si>
     <t>IV</t>
   </si>
@@ -297,87 +296,6 @@
   </si>
   <si>
     <t>Attribute Class - Attributes not published</t>
-  </si>
-  <si>
-    <t>Basic features</t>
-  </si>
-  <si>
-    <t>-Number of employees</t>
-  </si>
-  <si>
-    <t>-Company age in months</t>
-  </si>
-  <si>
-    <t>-Number of milestones in Crunchbase profile</t>
-  </si>
-  <si>
-    <t>-Number of revisions on Crunchbase profile</t>
-  </si>
-  <si>
-    <t>-Number of Techcrunch articles about the company</t>
-  </si>
-  <si>
-    <t>-Number of competitors</t>
-  </si>
-  <si>
-    <t>-Number of competitors that have been acquired</t>
-  </si>
-  <si>
-    <t>-Headquarters location</t>
-  </si>
-  <si>
-    <t>-Number of offices</t>
-  </si>
-  <si>
-    <t>-Number of products</t>
-  </si>
-  <si>
-    <t>-Number of providers</t>
-  </si>
-  <si>
-    <t>Financial features</t>
-  </si>
-  <si>
-    <t>-Number of funding rounds</t>
-  </si>
-  <si>
-    <t>-Number of investments by the company</t>
-  </si>
-  <si>
-    <t>-Number of acquisitions by the company</t>
-  </si>
-  <si>
-    <t>-Number of VC &amp; PE firms investing in the company</t>
-  </si>
-  <si>
-    <t>-Number of people with financial background investing in the company</t>
-  </si>
-  <si>
-    <t>-Number of investors per funding round</t>
-  </si>
-  <si>
-    <t>-Amount of investment per funding round</t>
-  </si>
-  <si>
-    <t>Managerial features</t>
-  </si>
-  <si>
-    <t>-Number of companies founded by founders of the target company</t>
-  </si>
-  <si>
-    <t>-Number of successful companies by founders</t>
-  </si>
-  <si>
-    <t>-Founder experience in months</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Has company been acquired?</t>
-  </si>
-  <si>
-    <t>Topic features</t>
   </si>
 </sst>
 </file>
@@ -461,8 +379,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1090,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
@@ -1685,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2256,238 +2202,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>